--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.214185333333333</v>
+        <v>0.3876063333333333</v>
       </c>
       <c r="H2">
-        <v>3.642556</v>
+        <v>1.162819</v>
       </c>
       <c r="I2">
-        <v>0.02886664532879162</v>
+        <v>0.009710908683933402</v>
       </c>
       <c r="J2">
-        <v>0.02886664532879162</v>
+        <v>0.009710908683933402</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N2">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O2">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P2">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q2">
-        <v>10.08909130426178</v>
+        <v>3.113685991990778</v>
       </c>
       <c r="R2">
-        <v>90.801821738356</v>
+        <v>28.023173927917</v>
       </c>
       <c r="S2">
-        <v>0.004431126686925578</v>
+        <v>0.001334364968791027</v>
       </c>
       <c r="T2">
-        <v>0.004431126686925578</v>
+        <v>0.001334364968791028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.214185333333333</v>
+        <v>0.3876063333333333</v>
       </c>
       <c r="H3">
-        <v>3.642556</v>
+        <v>1.162819</v>
       </c>
       <c r="I3">
-        <v>0.02886664532879162</v>
+        <v>0.009710908683933402</v>
       </c>
       <c r="J3">
-        <v>0.02886664532879162</v>
+        <v>0.009710908683933402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>111.460173</v>
       </c>
       <c r="O3">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P3">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q3">
-        <v>45.11110243579866</v>
+        <v>14.40088965640967</v>
       </c>
       <c r="R3">
-        <v>405.999921922188</v>
+        <v>129.608006907687</v>
       </c>
       <c r="S3">
-        <v>0.01981278629081919</v>
+        <v>0.006171477382872534</v>
       </c>
       <c r="T3">
-        <v>0.01981278629081919</v>
+        <v>0.006171477382872534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.214185333333333</v>
+        <v>0.3876063333333333</v>
       </c>
       <c r="H4">
-        <v>3.642556</v>
+        <v>1.162819</v>
       </c>
       <c r="I4">
-        <v>0.02886664532879162</v>
+        <v>0.009710908683933402</v>
       </c>
       <c r="J4">
-        <v>0.02886664532879162</v>
+        <v>0.009710908683933402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N4">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O4">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P4">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q4">
-        <v>10.52535214181289</v>
+        <v>5.145431955111778</v>
       </c>
       <c r="R4">
-        <v>94.72816927631601</v>
+        <v>46.308887596006</v>
       </c>
       <c r="S4">
-        <v>0.00462273235104685</v>
+        <v>0.00220506633226984</v>
       </c>
       <c r="T4">
-        <v>0.00462273235104685</v>
+        <v>0.00220506633226984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>85.577139</v>
       </c>
       <c r="I5">
-        <v>0.6781844725971822</v>
+        <v>0.714669937678414</v>
       </c>
       <c r="J5">
-        <v>0.6781844725971822</v>
+        <v>0.714669937678414</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N5">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O5">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P5">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q5">
-        <v>237.030142825121</v>
+        <v>229.150313968853</v>
       </c>
       <c r="R5">
-        <v>2133.271285426089</v>
+        <v>2062.352825719677</v>
       </c>
       <c r="S5">
-        <v>0.1041035867159323</v>
+        <v>0.0982019870770605</v>
       </c>
       <c r="T5">
-        <v>0.1041035867159323</v>
+        <v>0.09820198707706052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>85.577139</v>
       </c>
       <c r="I6">
-        <v>0.6781844725971822</v>
+        <v>0.714669937678414</v>
       </c>
       <c r="J6">
-        <v>0.6781844725971822</v>
+        <v>0.714669937678414</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>111.460173</v>
       </c>
       <c r="O6">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P6">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q6">
         <v>1059.826968642783</v>
@@ -818,10 +818,10 @@
         <v>9538.442717785047</v>
       </c>
       <c r="S6">
-        <v>0.4654757720641025</v>
+        <v>0.4541870900195465</v>
       </c>
       <c r="T6">
-        <v>0.4654757720641023</v>
+        <v>0.4541870900195465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>85.577139</v>
       </c>
       <c r="I7">
-        <v>0.6781844725971822</v>
+        <v>0.714669937678414</v>
       </c>
       <c r="J7">
-        <v>0.6781844725971822</v>
+        <v>0.714669937678414</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N7">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O7">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P7">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q7">
-        <v>247.279526591731</v>
+        <v>378.675740280854</v>
       </c>
       <c r="R7">
-        <v>2225.515739325579</v>
+        <v>3408.081662527686</v>
       </c>
       <c r="S7">
-        <v>0.1086051138171474</v>
+        <v>0.162280860581807</v>
       </c>
       <c r="T7">
-        <v>0.1086051138171474</v>
+        <v>0.162280860581807</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.32198033333333</v>
+        <v>11.00120833333333</v>
       </c>
       <c r="H8">
-        <v>36.965941</v>
+        <v>33.003625</v>
       </c>
       <c r="I8">
-        <v>0.2929488820740263</v>
+        <v>0.2756191536376525</v>
       </c>
       <c r="J8">
-        <v>0.2929488820740263</v>
+        <v>0.2756191536376525</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N8">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O8">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P8">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q8">
-        <v>102.3876513901101</v>
+        <v>88.3739643464861</v>
       </c>
       <c r="R8">
-        <v>921.488862510991</v>
+        <v>795.3656791183751</v>
       </c>
       <c r="S8">
-        <v>0.04496863402303667</v>
+        <v>0.03787251588004304</v>
       </c>
       <c r="T8">
-        <v>0.04496863402303667</v>
+        <v>0.03787251588004305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.32198033333333</v>
+        <v>11.00120833333333</v>
       </c>
       <c r="H9">
-        <v>36.965941</v>
+        <v>33.003625</v>
       </c>
       <c r="I9">
-        <v>0.2929488820740263</v>
+        <v>0.2756191536376525</v>
       </c>
       <c r="J9">
-        <v>0.2929488820740263</v>
+        <v>0.2756191536376525</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>111.460173</v>
       </c>
       <c r="O9">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P9">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q9">
-        <v>457.8033532186437</v>
+        <v>408.7321946807916</v>
       </c>
       <c r="R9">
-        <v>4120.230178967793</v>
+        <v>3678.589752127125</v>
       </c>
       <c r="S9">
-        <v>0.201067132275257</v>
+        <v>0.1751615042756495</v>
       </c>
       <c r="T9">
-        <v>0.201067132275257</v>
+        <v>0.1751615042756495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.32198033333333</v>
+        <v>11.00120833333333</v>
       </c>
       <c r="H10">
-        <v>36.965941</v>
+        <v>33.003625</v>
       </c>
       <c r="I10">
-        <v>0.2929488820740263</v>
+        <v>0.2756191536376525</v>
       </c>
       <c r="J10">
-        <v>0.2929488820740263</v>
+        <v>0.2756191536376525</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N10">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O10">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P10">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q10">
-        <v>106.8149799971446</v>
+        <v>146.0398451603611</v>
       </c>
       <c r="R10">
-        <v>961.3348199743011</v>
+        <v>1314.35860644325</v>
       </c>
       <c r="S10">
-        <v>0.04691311577573253</v>
+        <v>0.06258513348195996</v>
       </c>
       <c r="T10">
-        <v>0.04691311577573252</v>
+        <v>0.06258513348195996</v>
       </c>
     </row>
   </sheetData>
